--- a/common/iris_home/装修预算.xlsx
+++ b/common/iris_home/装修预算.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
   <si>
-    <t xml:space="preserve">馨苑悦湾 73.65
+    <t xml:space="preserve">馨苑悦湾 73.67
 </t>
   </si>
   <si>
@@ -886,10 +886,10 @@
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="32">
@@ -905,23 +905,11 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -936,22 +924,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -962,13 +943,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -977,7 +951,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -989,7 +963,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color indexed="52"/>
       <name val="宋体"/>
@@ -1004,10 +977,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1019,13 +1025,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1117,19 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,7 +1141,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1159,7 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="27"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1171,7 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1183,31 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,6 +1351,21 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="23"/>
       </left>
       <right style="thin">
@@ -1365,50 +1380,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1428,7 +1404,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1444,6 +1420,30 @@
       </top>
       <bottom style="thin">
         <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1470,136 +1470,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1861,25 +1861,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2228,9 +2228,9 @@
   <dimension ref="A1:J4628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H126" sqref="H126"/>
+      <selection pane="bottomLeft" activeCell="H134" sqref="H134:H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4173,13 +4173,15 @@
         <v>1</v>
       </c>
       <c r="F96" s="23">
-        <v>2500</v>
-      </c>
-      <c r="G96" s="15">
+        <v>2723</v>
+      </c>
+      <c r="G96" s="24">
         <f>E96*F96</f>
-        <v>2500</v>
-      </c>
-      <c r="H96" s="15"/>
+        <v>2723</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="97" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A97" s="21">
@@ -5472,7 +5474,7 @@
       </c>
       <c r="C157" s="77">
         <f>SUM(G1:G156)</f>
-        <v>736509.2</v>
+        <v>736732.2</v>
       </c>
       <c r="D157" s="74"/>
       <c r="E157" s="74"/>

--- a/common/iris_home/装修预算.xlsx
+++ b/common/iris_home/装修预算.xlsx
@@ -11,18 +11,18 @@
     <sheet name="房子总成本" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">硬装半包预算!$A$2:H166</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">硬装半包预算!$A$2:H165</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">硬装半包预算!$1:3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">硬装半包预算!$A$2:$FG$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">硬装半包预算!$A$2:$FG$156</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
   <si>
-    <t xml:space="preserve">馨苑悦湾 73.67
+    <t xml:space="preserve">馨苑悦湾 73.40
 </t>
   </si>
   <si>
@@ -543,12 +543,6 @@
     <t>1.2m</t>
   </si>
   <si>
-    <t>餐边柜</t>
-  </si>
-  <si>
-    <t>价格为预估</t>
-  </si>
-  <si>
     <t>台灯</t>
   </si>
   <si>
@@ -884,12 +878,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="32">
@@ -900,7 +894,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -913,9 +907,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -925,27 +938,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -956,15 +955,9 @@
       <charset val="0"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -977,43 +970,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
@@ -1026,6 +986,40 @@
       <b/>
       <sz val="11"/>
       <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1111,7 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="25"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,7 +1117,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="29"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,7 +1129,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,49 +1189,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="49"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="57"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1201,13 +1201,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,17 +1344,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1383,19 +1371,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color indexed="52"/>
+      <bottom style="medium">
+        <color indexed="44"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
       <top style="thin">
-        <color indexed="49"/>
+        <color indexed="63"/>
       </top>
-      <bottom style="double">
-        <color indexed="49"/>
+      <bottom style="thin">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,6 +1397,21 @@
       <top/>
       <bottom style="medium">
         <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1426,24 +1433,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="44"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
+      <top style="thin">
+        <color indexed="49"/>
       </top>
       <bottom style="double">
-        <color indexed="63"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1461,7 +1455,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1470,136 +1464,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1861,25 +1855,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="输入" xfId="12"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
-    <cellStyle name="差" xfId="15"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
+    <cellStyle name="输入" xfId="13"/>
+    <cellStyle name="差" xfId="14"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
+    <cellStyle name="警告文本" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="警告文本" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="强调文字颜色 2" xfId="21"/>
+    <cellStyle name="链接单元格" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="链接单元格" xfId="23"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
-    <cellStyle name="标题 3" xfId="25"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
-    <cellStyle name="输出" xfId="27"/>
+    <cellStyle name="强调文字颜色 2" xfId="23"/>
+    <cellStyle name="标题 3" xfId="24"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
+    <cellStyle name="输出" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="29"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
+    <cellStyle name="强调文字颜色 1" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2225,12 +2219,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J4628"/>
+  <dimension ref="A1:J4627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H134" sqref="H134:H137"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4074,7 +4068,7 @@
         <v>21000</v>
       </c>
       <c r="G92" s="24">
-        <f t="shared" ref="G92:G98" si="5">E92*F92</f>
+        <f>E92*F92</f>
         <v>21000</v>
       </c>
       <c r="H92" s="60" t="s">
@@ -4163,9 +4157,7 @@
       <c r="B96" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="C96" s="14" t="s">
-        <v>174</v>
-      </c>
+      <c r="C96" s="14"/>
       <c r="D96" s="22" t="s">
         <v>53</v>
       </c>
@@ -4173,98 +4165,100 @@
         <v>1</v>
       </c>
       <c r="F96" s="23">
-        <v>2723</v>
-      </c>
-      <c r="G96" s="24">
+        <v>300</v>
+      </c>
+      <c r="G96" s="15">
         <f>E96*F96</f>
-        <v>2723</v>
-      </c>
-      <c r="H96" s="31" t="s">
-        <v>22</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="H96" s="15"/>
     </row>
     <row r="97" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A97" s="21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E97" s="13">
-        <v>1</v>
-      </c>
-      <c r="F97" s="23">
-        <v>300</v>
-      </c>
-      <c r="G97" s="15">
-        <f>E97*F97</f>
-        <v>300</v>
-      </c>
-      <c r="H97" s="15"/>
+        <v>14</v>
+      </c>
+      <c r="E97" s="13"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="24">
+        <v>269</v>
+      </c>
+      <c r="H97" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="98" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A98" s="21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C98" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C98" s="14"/>
-      <c r="D98" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="23"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="13">
+        <v>1</v>
+      </c>
+      <c r="F98" s="23">
+        <v>255</v>
+      </c>
       <c r="G98" s="24">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="H98" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A99" s="21">
-        <v>9</v>
-      </c>
-      <c r="B99" s="13" t="s">
+    <row r="99" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A99" s="34"/>
+      <c r="B99" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="19"/>
+      <c r="G99" s="20"/>
+      <c r="H99" s="20"/>
+    </row>
+    <row r="100" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A100" s="21">
+        <v>1</v>
+      </c>
+      <c r="B100" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="C99" s="14" t="s">
+      <c r="C100" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="22"/>
-      <c r="E99" s="13">
+      <c r="D100" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="13">
         <v>1</v>
       </c>
-      <c r="F99" s="23">
-        <v>255</v>
-      </c>
-      <c r="G99" s="24">
-        <v>255</v>
-      </c>
-      <c r="H99" s="31" t="s">
+      <c r="F100" s="23">
+        <v>5300</v>
+      </c>
+      <c r="G100" s="24">
+        <f>E100*F100</f>
+        <v>5300</v>
+      </c>
+      <c r="H100" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A100" s="34"/>
-      <c r="B100" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="19"/>
-      <c r="G100" s="20"/>
-      <c r="H100" s="20"/>
-    </row>
-    <row r="101" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+    <row r="101" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A101" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>179</v>
@@ -4279,11 +4273,11 @@
         <v>1</v>
       </c>
       <c r="F101" s="23">
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="G101" s="24">
         <f>E101*F101</f>
-        <v>5300</v>
+        <v>3500</v>
       </c>
       <c r="H101" s="31" t="s">
         <v>22</v>
@@ -4291,7 +4285,7 @@
     </row>
     <row r="102" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A102" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>181</v>
@@ -4299,18 +4293,11 @@
       <c r="C102" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="D102" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="13">
-        <v>1</v>
-      </c>
-      <c r="F102" s="23">
-        <v>3500</v>
-      </c>
+      <c r="D102" s="22"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="23"/>
       <c r="G102" s="24">
-        <f>E102*F102</f>
-        <v>3500</v>
+        <v>316</v>
       </c>
       <c r="H102" s="31" t="s">
         <v>22</v>
@@ -4318,7 +4305,7 @@
     </row>
     <row r="103" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A103" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>183</v>
@@ -4330,7 +4317,7 @@
       <c r="E103" s="13"/>
       <c r="F103" s="23"/>
       <c r="G103" s="24">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="H103" s="31" t="s">
         <v>22</v>
@@ -4338,19 +4325,19 @@
     </row>
     <row r="104" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A104" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="C104" s="14" t="s">
+      <c r="C104" s="13" t="s">
         <v>186</v>
       </c>
       <c r="D104" s="22"/>
       <c r="E104" s="13"/>
       <c r="F104" s="23"/>
       <c r="G104" s="24">
-        <v>288</v>
+        <v>94</v>
       </c>
       <c r="H104" s="31" t="s">
         <v>22</v>
@@ -4358,19 +4345,26 @@
     </row>
     <row r="105" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A105" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="23"/>
+      <c r="D105" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="13">
+        <v>1</v>
+      </c>
+      <c r="F105" s="23">
+        <v>3250</v>
+      </c>
       <c r="G105" s="24">
-        <v>94</v>
+        <f t="shared" ref="G105:G107" si="5">E105*F105</f>
+        <v>3250</v>
       </c>
       <c r="H105" s="31" t="s">
         <v>22</v>
@@ -4378,7 +4372,7 @@
     </row>
     <row r="106" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A106" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>189</v>
@@ -4387,17 +4381,17 @@
         <v>190</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E106" s="13">
         <v>1</v>
       </c>
       <c r="F106" s="23">
-        <v>3250</v>
+        <v>950</v>
       </c>
       <c r="G106" s="24">
-        <f t="shared" ref="G106:G108" si="6">E106*F106</f>
-        <v>3250</v>
+        <f>E106*F106</f>
+        <v>950</v>
       </c>
       <c r="H106" s="31" t="s">
         <v>22</v>
@@ -4405,13 +4399,13 @@
     </row>
     <row r="107" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A107" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C107" s="14" t="s">
-        <v>192</v>
+      <c r="C107" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="D107" s="22" t="s">
         <v>53</v>
@@ -4420,11 +4414,11 @@
         <v>1</v>
       </c>
       <c r="F107" s="23">
-        <v>950</v>
+        <v>268</v>
       </c>
       <c r="G107" s="24">
         <f>E107*F107</f>
-        <v>950</v>
+        <v>268</v>
       </c>
       <c r="H107" s="31" t="s">
         <v>22</v>
@@ -4432,69 +4426,69 @@
     </row>
     <row r="108" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A108" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B108" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D108" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E108" s="13">
-        <v>1</v>
-      </c>
-      <c r="F108" s="23">
-        <v>268</v>
-      </c>
+      <c r="D108" s="22"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="23"/>
       <c r="G108" s="24">
-        <f>E108*F108</f>
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="H108" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="109" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A109" s="21">
-        <v>9</v>
-      </c>
-      <c r="B109" s="13" t="s">
+    <row r="109" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A109" s="34"/>
+      <c r="B109" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="19"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="20"/>
+    </row>
+    <row r="110" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
+      <c r="A110" s="21">
+        <v>1</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C110" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D109" s="22"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="23"/>
-      <c r="G109" s="24">
-        <v>350</v>
-      </c>
-      <c r="H109" s="31" t="s">
+      <c r="D110" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E110" s="13">
+        <v>1</v>
+      </c>
+      <c r="F110" s="23">
+        <v>3300</v>
+      </c>
+      <c r="G110" s="24">
+        <f>E110*F110</f>
+        <v>3300</v>
+      </c>
+      <c r="H110" s="31" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A110" s="34"/>
-      <c r="B110" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C110" s="18"/>
-      <c r="D110" s="16"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="20"/>
-      <c r="H110" s="20"/>
     </row>
     <row r="111" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A111" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="C111" s="14" t="s">
         <v>196</v>
@@ -4505,12 +4499,11 @@
       <c r="E111" s="13">
         <v>1</v>
       </c>
-      <c r="F111" s="23">
-        <v>3300</v>
+      <c r="F111" s="15">
+        <v>5070</v>
       </c>
       <c r="G111" s="24">
-        <f>E111*F111</f>
-        <v>3300</v>
+        <v>5070</v>
       </c>
       <c r="H111" s="31" t="s">
         <v>22</v>
@@ -4518,25 +4511,17 @@
     </row>
     <row r="112" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A112" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B112" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C112" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E112" s="13">
-        <v>1</v>
-      </c>
-      <c r="F112" s="15">
-        <v>5070</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="22"/>
+      <c r="E112" s="13"/>
+      <c r="F112" s="23"/>
       <c r="G112" s="24">
-        <v>5070</v>
+        <v>518</v>
       </c>
       <c r="H112" s="31" t="s">
         <v>22</v>
@@ -4544,17 +4529,19 @@
     </row>
     <row r="113" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A113" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B113" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="14"/>
+        <v>197</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>186</v>
+      </c>
       <c r="D113" s="22"/>
       <c r="E113" s="13"/>
       <c r="F113" s="23"/>
       <c r="G113" s="24">
-        <v>518</v>
+        <v>48</v>
       </c>
       <c r="H113" s="31" t="s">
         <v>22</v>
@@ -4562,19 +4549,19 @@
     </row>
     <row r="114" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A114" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B114" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" s="14" t="s">
         <v>199</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="D114" s="22"/>
       <c r="E114" s="13"/>
       <c r="F114" s="23"/>
       <c r="G114" s="24">
-        <v>48</v>
+        <v>586</v>
       </c>
       <c r="H114" s="31" t="s">
         <v>22</v>
@@ -4582,19 +4569,23 @@
     </row>
     <row r="115" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A115" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C115" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="23"/>
+      <c r="D115" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E115" s="13">
+        <v>1</v>
+      </c>
+      <c r="F115" s="15"/>
       <c r="G115" s="24">
-        <v>586</v>
+        <v>2419</v>
       </c>
       <c r="H115" s="31" t="s">
         <v>22</v>
@@ -4602,91 +4593,94 @@
     </row>
     <row r="116" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A116" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B116" s="13" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="C116" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D116" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E116" s="13">
-        <v>1</v>
-      </c>
-      <c r="F116" s="15"/>
+      <c r="D116" s="22"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="63"/>
       <c r="G116" s="24">
-        <v>2419</v>
+        <v>0</v>
       </c>
       <c r="H116" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="117" s="3" customFormat="1" ht="25" customHeight="1" spans="1:8">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" s="5" customFormat="1" ht="25" customHeight="1" spans="1:8">
       <c r="A117" s="21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B117" s="13" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C117" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D117" s="22"/>
+      <c r="D117" s="22" t="s">
+        <v>53</v>
+      </c>
       <c r="E117" s="13"/>
-      <c r="F117" s="63"/>
+      <c r="F117" s="23"/>
       <c r="G117" s="24">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="H117" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A118" s="34"/>
+      <c r="B118" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="20"/>
+      <c r="H118" s="20"/>
+    </row>
+    <row r="119" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A119" s="21">
+        <v>1</v>
+      </c>
+      <c r="B119" s="13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="118" s="5" customFormat="1" ht="25" customHeight="1" spans="1:8">
-      <c r="A118" s="21">
-        <v>8</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C118" s="14" t="s">
+      <c r="C119" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D118" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="23"/>
-      <c r="G118" s="24">
-        <v>608</v>
-      </c>
-      <c r="H118" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A119" s="34"/>
-      <c r="B119" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C119" s="18"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="20"/>
-      <c r="H119" s="20"/>
+      <c r="D119" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E119" s="13">
+        <v>1</v>
+      </c>
+      <c r="F119" s="23">
+        <v>7500</v>
+      </c>
+      <c r="G119" s="24">
+        <f t="shared" ref="G119:G124" si="6">E119*F119</f>
+        <v>7500</v>
+      </c>
+      <c r="H119" s="15" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="120" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A120" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D120" s="22" t="s">
         <v>14</v>
@@ -4695,19 +4689,19 @@
         <v>1</v>
       </c>
       <c r="F120" s="23">
-        <v>7500</v>
+        <v>11300</v>
       </c>
       <c r="G120" s="24">
-        <f t="shared" ref="G120:G125" si="7">E120*F120</f>
-        <v>7500</v>
+        <f>E120*F120</f>
+        <v>11300</v>
       </c>
       <c r="H120" s="15" t="s">
-        <v>209</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A121" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>210</v>
@@ -4716,17 +4710,17 @@
         <v>211</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E121" s="13">
         <v>1</v>
       </c>
       <c r="F121" s="23">
-        <v>11300</v>
+        <v>4300</v>
       </c>
       <c r="G121" s="24">
         <f>E121*F121</f>
-        <v>11300</v>
+        <v>4300</v>
       </c>
       <c r="H121" s="15" t="s">
         <v>22</v>
@@ -4734,7 +4728,7 @@
     </row>
     <row r="122" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A122" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>212</v>
@@ -4743,17 +4737,17 @@
         <v>213</v>
       </c>
       <c r="D122" s="22" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E122" s="13">
         <v>1</v>
       </c>
       <c r="F122" s="23">
-        <v>4300</v>
+        <v>2988</v>
       </c>
       <c r="G122" s="24">
         <f>E122*F122</f>
-        <v>4300</v>
+        <v>2988</v>
       </c>
       <c r="H122" s="15" t="s">
         <v>22</v>
@@ -4761,7 +4755,7 @@
     </row>
     <row r="123" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A123" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>214</v>
@@ -4776,25 +4770,25 @@
         <v>1</v>
       </c>
       <c r="F123" s="23">
-        <v>2988</v>
+        <v>0</v>
       </c>
       <c r="G123" s="24">
         <f>E123*F123</f>
-        <v>2988</v>
+        <v>0</v>
       </c>
       <c r="H123" s="15" t="s">
-        <v>22</v>
+        <v>216</v>
       </c>
     </row>
     <row r="124" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A124" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" s="13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="D124" s="22" t="s">
         <v>14</v>
@@ -4803,84 +4797,83 @@
         <v>1</v>
       </c>
       <c r="F124" s="23">
-        <v>0</v>
+        <v>2590</v>
       </c>
       <c r="G124" s="24">
         <f>E124*F124</f>
-        <v>0</v>
+        <v>2590</v>
       </c>
       <c r="H124" s="15" t="s">
-        <v>218</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A125" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B125" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D125" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="13">
-        <v>1</v>
-      </c>
-      <c r="F125" s="23">
-        <v>2590</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="D125" s="22"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="23"/>
       <c r="G125" s="24">
-        <f>E125*F125</f>
-        <v>2590</v>
+        <v>479</v>
       </c>
       <c r="H125" s="15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="126" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A126" s="21">
-        <v>7</v>
-      </c>
-      <c r="B126" s="13" t="s">
+    <row r="126" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A126" s="34"/>
+      <c r="B126" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="18"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="20"/>
+      <c r="H126" s="20"/>
+    </row>
+    <row r="127" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A127" s="21">
+        <v>1</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C126" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D126" s="22"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="23"/>
-      <c r="G126" s="24">
-        <v>479</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="127" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A127" s="34"/>
-      <c r="B127" s="17" t="s">
+      <c r="C127" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="C127" s="18"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="20"/>
-      <c r="H127" s="20"/>
+      <c r="D127" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E127" s="13">
+        <v>1</v>
+      </c>
+      <c r="F127" s="23">
+        <v>8000</v>
+      </c>
+      <c r="G127" s="24">
+        <v>8000</v>
+      </c>
+      <c r="H127" s="64" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="128" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A128" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D128" s="22" t="s">
         <v>53</v>
@@ -4889,24 +4882,22 @@
         <v>1</v>
       </c>
       <c r="F128" s="23">
-        <v>8000</v>
+        <v>1000</v>
       </c>
       <c r="G128" s="24">
-        <v>8000</v>
-      </c>
-      <c r="H128" s="64" t="s">
-        <v>224</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H128" s="65"/>
     </row>
     <row r="129" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A129" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D129" s="22" t="s">
         <v>53</v>
@@ -4915,22 +4906,22 @@
         <v>1</v>
       </c>
       <c r="F129" s="23">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="G129" s="24">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="H129" s="65"/>
     </row>
     <row r="130" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A130" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B130" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C130" s="14" t="s">
         <v>226</v>
-      </c>
-      <c r="C130" s="14" t="s">
-        <v>223</v>
       </c>
       <c r="D130" s="22" t="s">
         <v>53</v>
@@ -4939,83 +4930,85 @@
         <v>1</v>
       </c>
       <c r="F130" s="23">
-        <v>5000</v>
+        <v>4000</v>
       </c>
       <c r="G130" s="24">
-        <v>5000</v>
-      </c>
-      <c r="H130" s="65"/>
+        <v>4000</v>
+      </c>
+      <c r="H130" s="66"/>
     </row>
     <row r="131" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A131" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="C131" s="14" t="s">
+      <c r="C131" s="15" t="s">
         <v>228</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E131" s="13">
         <v>1</v>
       </c>
       <c r="F131" s="23">
-        <v>4000</v>
+        <v>1459</v>
       </c>
       <c r="G131" s="24">
-        <v>4000</v>
-      </c>
-      <c r="H131" s="66"/>
-    </row>
-    <row r="132" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A132" s="21">
-        <v>5</v>
-      </c>
-      <c r="B132" s="13" t="s">
+        <f>E131*F131</f>
+        <v>1459</v>
+      </c>
+      <c r="H131" s="67"/>
+    </row>
+    <row r="132" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A132" s="34"/>
+      <c r="B132" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C132" s="15" t="s">
+      <c r="C132" s="18"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="20"/>
+    </row>
+    <row r="133" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A133" s="21">
+        <v>1</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C133" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D132" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E132" s="13">
+      <c r="D133" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E133" s="13">
         <v>1</v>
       </c>
-      <c r="F132" s="23">
-        <v>1459</v>
-      </c>
-      <c r="G132" s="24">
-        <f>E132*F132</f>
-        <v>1459</v>
-      </c>
-      <c r="H132" s="67"/>
-    </row>
-    <row r="133" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A133" s="34"/>
-      <c r="B133" s="17" t="s">
+      <c r="F133" s="23">
+        <v>5500</v>
+      </c>
+      <c r="G133" s="24">
+        <v>5500</v>
+      </c>
+      <c r="H133" s="60" t="s">
         <v>231</v>
       </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="19"/>
-      <c r="F133" s="19"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
     </row>
     <row r="134" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A134" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B134" s="13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D134" s="22" t="s">
         <v>53</v>
@@ -5024,24 +5017,22 @@
         <v>1</v>
       </c>
       <c r="F134" s="23">
-        <v>5500</v>
+        <v>1000</v>
       </c>
       <c r="G134" s="24">
-        <v>5500</v>
-      </c>
-      <c r="H134" s="60" t="s">
-        <v>233</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="H134" s="61"/>
     </row>
     <row r="135" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A135" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="C135" s="14" t="s">
         <v>232</v>
+      </c>
+      <c r="C135" s="68" t="s">
+        <v>233</v>
       </c>
       <c r="D135" s="22" t="s">
         <v>53</v>
@@ -5050,22 +5041,22 @@
         <v>1</v>
       </c>
       <c r="F135" s="23">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="G135" s="24">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="H135" s="61"/>
     </row>
     <row r="136" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A136" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C136" s="68" t="s">
-        <v>235</v>
+      <c r="C136" s="14" t="s">
+        <v>230</v>
       </c>
       <c r="D136" s="22" t="s">
         <v>53</v>
@@ -5074,72 +5065,70 @@
         <v>1</v>
       </c>
       <c r="F136" s="23">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="G136" s="24">
-        <v>2500</v>
-      </c>
-      <c r="H136" s="61"/>
+        <v>3600</v>
+      </c>
+      <c r="H136" s="62"/>
     </row>
     <row r="137" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A137" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C137" s="14" t="s">
-        <v>232</v>
+        <v>227</v>
+      </c>
+      <c r="C137" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="E137" s="13">
         <v>1</v>
       </c>
       <c r="F137" s="23">
-        <v>3600</v>
+        <v>1459</v>
       </c>
       <c r="G137" s="24">
-        <v>3600</v>
-      </c>
-      <c r="H137" s="62"/>
+        <f>E137*F137</f>
+        <v>1459</v>
+      </c>
+      <c r="H137" s="15"/>
     </row>
     <row r="138" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A138" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="C138" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="E138" s="13">
         <v>1</v>
       </c>
       <c r="F138" s="23">
-        <v>1459</v>
-      </c>
-      <c r="G138" s="24">
-        <f>E138*F138</f>
-        <v>1459</v>
+        <v>3000</v>
+      </c>
+      <c r="G138" s="15">
+        <v>2000</v>
       </c>
       <c r="H138" s="15"/>
     </row>
     <row r="139" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A139" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="C139" s="14" t="s">
-        <v>232</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C139" s="14"/>
       <c r="D139" s="22" t="s">
         <v>53</v>
       </c>
@@ -5147,93 +5136,96 @@
         <v>1</v>
       </c>
       <c r="F139" s="23">
+        <v>600</v>
+      </c>
+      <c r="G139" s="15">
+        <f>E139*F139</f>
+        <v>600</v>
+      </c>
+      <c r="H139" s="15"/>
+    </row>
+    <row r="140" s="3" customFormat="1" ht="32" customHeight="1" spans="1:8">
+      <c r="A140" s="21">
+        <v>8</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" s="68"/>
+      <c r="D140" s="22"/>
+      <c r="E140" s="13"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="24">
+        <v>831</v>
+      </c>
+      <c r="H140" s="15"/>
+    </row>
+    <row r="141" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A141" s="34"/>
+      <c r="B141" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="20"/>
+    </row>
+    <row r="142" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A142" s="21">
+        <v>1</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C142" s="39"/>
+      <c r="D142" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E142" s="13"/>
+      <c r="F142" s="23">
         <v>3000</v>
       </c>
-      <c r="G139" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H139" s="15"/>
-    </row>
-    <row r="140" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A140" s="21">
-        <v>7</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="C140" s="14"/>
-      <c r="D140" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E140" s="13">
-        <v>1</v>
-      </c>
-      <c r="F140" s="23">
-        <v>600</v>
-      </c>
-      <c r="G140" s="15">
-        <f>E140*F140</f>
-        <v>600</v>
-      </c>
-      <c r="H140" s="15"/>
-    </row>
-    <row r="141" s="3" customFormat="1" ht="32" customHeight="1" spans="1:8">
-      <c r="A141" s="21">
-        <v>8</v>
-      </c>
-      <c r="B141" s="13" t="s">
+      <c r="G142" s="15">
+        <v>3000</v>
+      </c>
+      <c r="H142" s="67"/>
+    </row>
+    <row r="143" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A143" s="21">
+        <v>2</v>
+      </c>
+      <c r="B143" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="C141" s="68"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="13"/>
-      <c r="F141" s="23"/>
-      <c r="G141" s="24">
-        <v>831</v>
-      </c>
-      <c r="H141" s="15"/>
-    </row>
-    <row r="142" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A142" s="34"/>
-      <c r="B142" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C142" s="18"/>
-      <c r="D142" s="16"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-    </row>
-    <row r="143" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A143" s="21">
-        <v>1</v>
-      </c>
-      <c r="B143" s="13" t="s">
+      <c r="C143" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="C143" s="39"/>
       <c r="D143" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E143" s="13"/>
+      <c r="E143" s="13">
+        <v>1</v>
+      </c>
       <c r="F143" s="23">
-        <v>3000</v>
+        <v>700</v>
       </c>
       <c r="G143" s="15">
-        <v>3000</v>
-      </c>
-      <c r="H143" s="67"/>
+        <f t="shared" ref="G143:G145" si="7">E143*F143</f>
+        <v>700</v>
+      </c>
+      <c r="H143" s="15"/>
     </row>
     <row r="144" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A144" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B144" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C144" s="39" t="s">
         <v>241</v>
-      </c>
-      <c r="C144" s="39" t="s">
-        <v>242</v>
       </c>
       <c r="D144" s="22" t="s">
         <v>53</v>
@@ -5242,20 +5234,20 @@
         <v>1</v>
       </c>
       <c r="F144" s="23">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="G144" s="15">
-        <f t="shared" ref="G144:G146" si="8">E144*F144</f>
-        <v>700</v>
+        <f>E144*F144</f>
+        <v>2300</v>
       </c>
       <c r="H144" s="15"/>
     </row>
     <row r="145" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A145" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C145" s="39" t="s">
         <v>243</v>
@@ -5267,115 +5259,113 @@
         <v>1</v>
       </c>
       <c r="F145" s="23">
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="G145" s="15">
         <f>E145*F145</f>
-        <v>2300</v>
+        <v>1700</v>
       </c>
       <c r="H145" s="15"/>
     </row>
-    <row r="146" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A146" s="21">
-        <v>4</v>
-      </c>
-      <c r="B146" s="13" t="s">
+    <row r="146" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A146" s="34"/>
+      <c r="B146" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="C146" s="39" t="s">
+      <c r="C146" s="18"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="20"/>
+      <c r="H146" s="20"/>
+    </row>
+    <row r="147" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A147" s="21">
+        <v>1</v>
+      </c>
+      <c r="B147" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="D146" s="22" t="s">
+      <c r="C147" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D147" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E146" s="13">
+      <c r="E147" s="13">
         <v>1</v>
       </c>
-      <c r="F146" s="23">
-        <v>1700</v>
-      </c>
-      <c r="G146" s="15">
-        <f>E146*F146</f>
-        <v>1700</v>
-      </c>
-      <c r="H146" s="15"/>
-    </row>
-    <row r="147" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A147" s="34"/>
-      <c r="B147" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="C147" s="18"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="19"/>
-      <c r="F147" s="19"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
+      <c r="F147" s="23">
+        <v>3880</v>
+      </c>
+      <c r="G147" s="24">
+        <v>3880</v>
+      </c>
+      <c r="H147" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="148" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A148" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>247</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="D148" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E148" s="13">
-        <v>1</v>
-      </c>
-      <c r="F148" s="23">
-        <v>3880</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D148" s="22"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="23"/>
       <c r="G148" s="24">
-        <v>3880</v>
+        <v>610</v>
       </c>
       <c r="H148" s="31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="149" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A149" s="21">
+    <row r="149" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A149" s="34"/>
+      <c r="B149" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" s="18"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="19"/>
+      <c r="F149" s="19"/>
+      <c r="G149" s="20"/>
+      <c r="H149" s="20"/>
+    </row>
+    <row r="150" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A150" s="21">
+        <v>1</v>
+      </c>
+      <c r="B150" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" s="14"/>
+      <c r="D150" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E150" s="13">
+        <v>1</v>
+      </c>
+      <c r="F150" s="23">
+        <v>0</v>
+      </c>
+      <c r="G150" s="15">
+        <f>E150*F150</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="67"/>
+    </row>
+    <row r="151" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A151" s="21">
         <v>2</v>
       </c>
-      <c r="B149" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D149" s="22"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="24">
-        <v>610</v>
-      </c>
-      <c r="H149" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="150" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A150" s="34"/>
-      <c r="B150" s="17" t="s">
+      <c r="B151" s="13" t="s">
         <v>250</v>
-      </c>
-      <c r="C150" s="18"/>
-      <c r="D150" s="16"/>
-      <c r="E150" s="19"/>
-      <c r="F150" s="19"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-    </row>
-    <row r="151" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A151" s="21">
-        <v>1</v>
-      </c>
-      <c r="B151" s="13" t="s">
-        <v>251</v>
       </c>
       <c r="C151" s="14"/>
       <c r="D151" s="22" t="s">
@@ -5391,227 +5381,209 @@
         <f>E151*F151</f>
         <v>0</v>
       </c>
-      <c r="H151" s="67"/>
-    </row>
-    <row r="152" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A152" s="21">
-        <v>2</v>
-      </c>
-      <c r="B152" s="13" t="s">
+      <c r="H151" s="15"/>
+    </row>
+    <row r="152" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
+      <c r="A152" s="34"/>
+      <c r="B152" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="20"/>
+    </row>
+    <row r="153" s="6" customFormat="1" ht="24" customHeight="1" spans="1:8">
+      <c r="A153" s="21">
+        <v>1</v>
+      </c>
+      <c r="B153" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="C152" s="14"/>
-      <c r="D152" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E152" s="13">
-        <v>1</v>
-      </c>
-      <c r="F152" s="23">
-        <v>0</v>
-      </c>
-      <c r="G152" s="15">
-        <f>E152*F152</f>
-        <v>0</v>
-      </c>
-      <c r="H152" s="15"/>
-    </row>
-    <row r="153" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
-      <c r="A153" s="34"/>
-      <c r="B153" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C153" s="18"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="20"/>
-      <c r="H153" s="20"/>
+      <c r="C153" s="69"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="71"/>
+      <c r="F153" s="72"/>
+      <c r="G153" s="15">
+        <v>9600</v>
+      </c>
+      <c r="H153" s="15"/>
     </row>
     <row r="154" s="6" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A154" s="21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C154" s="69"/>
       <c r="D154" s="70"/>
       <c r="E154" s="71"/>
       <c r="F154" s="72"/>
       <c r="G154" s="15">
-        <v>9600</v>
+        <v>218837</v>
       </c>
       <c r="H154" s="15"/>
     </row>
-    <row r="155" s="6" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A155" s="21">
-        <v>2</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C155" s="69"/>
-      <c r="D155" s="70"/>
-      <c r="E155" s="71"/>
-      <c r="F155" s="72"/>
-      <c r="G155" s="15">
-        <v>218837</v>
-      </c>
-      <c r="H155" s="15"/>
-    </row>
-    <row r="156" s="5" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+    <row r="155" s="5" customFormat="1" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A155" s="21"/>
+      <c r="C155" s="73"/>
+      <c r="D155" s="74"/>
+      <c r="E155" s="74"/>
+      <c r="H155" s="75"/>
+    </row>
+    <row r="156" s="5" customFormat="1" ht="27" spans="1:8">
       <c r="A156" s="21"/>
-      <c r="C156" s="73"/>
+      <c r="B156" s="76" t="s">
+        <v>254</v>
+      </c>
+      <c r="C156" s="77">
+        <f>SUM(G1:G155)</f>
+        <v>734009.2</v>
+      </c>
       <c r="D156" s="74"/>
       <c r="E156" s="74"/>
+      <c r="F156" s="78"/>
+      <c r="G156" s="79"/>
       <c r="H156" s="75"/>
     </row>
-    <row r="157" s="5" customFormat="1" ht="31.6" spans="1:8">
+    <row r="157" s="3" customFormat="1" customHeight="1" spans="1:8">
       <c r="A157" s="21"/>
-      <c r="B157" s="76" t="s">
-        <v>256</v>
-      </c>
-      <c r="C157" s="77">
-        <f>SUM(G1:G156)</f>
-        <v>736732.2</v>
-      </c>
-      <c r="D157" s="74"/>
-      <c r="E157" s="74"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="79"/>
-      <c r="H157" s="75"/>
-    </row>
-    <row r="158" s="3" customFormat="1" customHeight="1" spans="1:8">
+      <c r="C157" s="80"/>
+      <c r="G157" s="81"/>
+      <c r="H157" s="81"/>
+    </row>
+    <row r="158" s="3" customFormat="1" ht="90" customHeight="1" spans="1:8">
       <c r="A158" s="21"/>
+      <c r="B158" s="3" t="s">
+        <v>255</v>
+      </c>
       <c r="C158" s="80"/>
       <c r="G158" s="81"/>
       <c r="H158" s="81"/>
     </row>
-    <row r="159" s="3" customFormat="1" ht="90" customHeight="1" spans="1:8">
+    <row r="159" s="3" customFormat="1" ht="44" customHeight="1" spans="1:8">
       <c r="A159" s="21"/>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="C159" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D159" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C159" s="80"/>
       <c r="G159" s="81"/>
       <c r="H159" s="81"/>
     </row>
-    <row r="160" s="3" customFormat="1" ht="44" customHeight="1" spans="1:8">
-      <c r="A160" s="21"/>
+    <row r="160" s="3" customFormat="1" ht="32" customHeight="1" spans="2:8">
       <c r="B160" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C160" s="14">
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G160" s="81"/>
       <c r="H160" s="81"/>
     </row>
-    <row r="161" s="3" customFormat="1" ht="32" customHeight="1" spans="2:8">
-      <c r="B161" s="14" t="s">
-        <v>260</v>
-      </c>
-      <c r="C161" s="14">
-        <v>8000</v>
-      </c>
-      <c r="D161" s="14" t="s">
-        <v>259</v>
-      </c>
+    <row r="161" s="3" customFormat="1" ht="36" customHeight="1" spans="2:8">
+      <c r="B161" s="82"/>
+      <c r="C161" s="82"/>
+      <c r="D161" s="82"/>
       <c r="G161" s="81"/>
       <c r="H161" s="81"/>
     </row>
-    <row r="162" s="3" customFormat="1" ht="36" customHeight="1" spans="2:8">
-      <c r="B162" s="82"/>
-      <c r="C162" s="82"/>
-      <c r="D162" s="82"/>
-      <c r="G162" s="81"/>
-      <c r="H162" s="81"/>
-    </row>
-    <row r="163" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
-      <c r="A163" s="12"/>
+    <row r="162" s="3" customFormat="1" ht="24.95" customHeight="1" spans="1:8">
+      <c r="A162" s="12"/>
+      <c r="B162" t="s">
+        <v>259</v>
+      </c>
+      <c r="C162"/>
+      <c r="D162" s="22"/>
+      <c r="E162" s="13"/>
+      <c r="F162" s="23"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+    </row>
+    <row r="163" s="3" customFormat="1" ht="22" customHeight="1" spans="2:8">
       <c r="B163" t="s">
+        <v>260</v>
+      </c>
+      <c r="C163">
+        <v>300</v>
+      </c>
+      <c r="G163" s="81"/>
+      <c r="H163" s="81"/>
+    </row>
+    <row r="164" s="3" customFormat="1" customHeight="1" spans="2:8">
+      <c r="B164" t="s">
         <v>261</v>
       </c>
-      <c r="C163"/>
-      <c r="D163" s="22"/>
-      <c r="E163" s="13"/>
-      <c r="F163" s="23"/>
-      <c r="G163" s="15"/>
-      <c r="H163" s="15"/>
-    </row>
-    <row r="164" s="3" customFormat="1" ht="22" customHeight="1" spans="2:8">
-      <c r="B164" t="s">
-        <v>262</v>
-      </c>
       <c r="C164">
-        <v>300</v>
+        <v>84000</v>
       </c>
       <c r="G164" s="81"/>
       <c r="H164" s="81"/>
     </row>
     <row r="165" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B165" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C165">
-        <v>84000</v>
+        <v>33000</v>
       </c>
       <c r="G165" s="81"/>
       <c r="H165" s="81"/>
     </row>
     <row r="166" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B166" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166">
-        <v>33000</v>
+        <v>90787</v>
       </c>
       <c r="G166" s="81"/>
       <c r="H166" s="81"/>
     </row>
     <row r="167" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B167" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C167">
-        <v>90787</v>
+        <f>SUM(C163:C166)</f>
+        <v>208087</v>
       </c>
       <c r="G167" s="81"/>
       <c r="H167" s="81"/>
     </row>
     <row r="168" s="3" customFormat="1" customHeight="1" spans="2:8">
       <c r="B168" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C168">
-        <f>SUM(C164:C167)</f>
-        <v>208087</v>
+        <v>10750</v>
       </c>
       <c r="G168" s="81"/>
       <c r="H168" s="81"/>
     </row>
-    <row r="169" s="3" customFormat="1" customHeight="1" spans="2:8">
+    <row r="169" s="3" customFormat="1" ht="29" customHeight="1" spans="2:8">
       <c r="B169" t="s">
-        <v>267</v>
-      </c>
-      <c r="C169">
-        <v>10750</v>
+        <v>266</v>
+      </c>
+      <c r="C169" s="1">
+        <f>SUM(C167:C168)</f>
+        <v>218837</v>
       </c>
       <c r="G169" s="81"/>
       <c r="H169" s="81"/>
     </row>
-    <row r="170" s="3" customFormat="1" ht="29" customHeight="1" spans="2:8">
-      <c r="B170" t="s">
-        <v>268</v>
-      </c>
-      <c r="C170" s="1">
-        <f>SUM(C168:C169)</f>
-        <v>218837</v>
-      </c>
+    <row r="170" s="3" customFormat="1" customHeight="1" spans="3:8">
+      <c r="C170" s="80"/>
       <c r="G170" s="81"/>
       <c r="H170" s="81"/>
     </row>
@@ -6190,8 +6162,13 @@
       <c r="G285" s="81"/>
       <c r="H285" s="81"/>
     </row>
-    <row r="286" s="3" customFormat="1" customHeight="1" spans="3:8">
+    <row r="286" customHeight="1" spans="1:8">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
       <c r="C286" s="80"/>
+      <c r="D286" s="3"/>
+      <c r="E286" s="3"/>
+      <c r="F286" s="3"/>
       <c r="G286" s="81"/>
       <c r="H286" s="81"/>
     </row>
@@ -49605,18 +49582,8 @@
       <c r="G4627" s="81"/>
       <c r="H4627" s="81"/>
     </row>
-    <row r="4628" customHeight="1" spans="1:8">
-      <c r="A4628" s="3"/>
-      <c r="B4628" s="3"/>
-      <c r="C4628" s="80"/>
-      <c r="D4628" s="3"/>
-      <c r="E4628" s="3"/>
-      <c r="F4628" s="3"/>
-      <c r="G4628" s="81"/>
-      <c r="H4628" s="81"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:FG157"/>
+  <autoFilter ref="A2:FG156"/>
   <mergeCells count="22">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="F2:G2"/>
@@ -49638,8 +49605,8 @@
     <mergeCell ref="H68:H73"/>
     <mergeCell ref="H78:H81"/>
     <mergeCell ref="H92:H94"/>
-    <mergeCell ref="H128:H131"/>
-    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="H127:H130"/>
+    <mergeCell ref="H133:H136"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.0791666666666667" right="0.2" top="0.2" bottom="0.588888888888889" header="0.359027777777778" footer="0.229166666666667"/>
@@ -49668,7 +49635,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B1">
         <v>399.89</v>
@@ -49676,7 +49643,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2">
         <v>0.56</v>
@@ -49684,24 +49651,24 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B3">
         <v>1.89</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="2:2">
@@ -49712,12 +49679,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10">
         <v>300</v>
@@ -49725,7 +49692,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B11">
         <v>84000</v>
@@ -49733,7 +49700,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B12">
         <v>33000</v>
@@ -49741,7 +49708,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B13">
         <v>90787</v>
@@ -49749,7 +49716,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B14">
         <f>SUM(B10:B13)</f>
@@ -49758,7 +49725,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B15">
         <v>10750</v>
@@ -49766,7 +49733,7 @@
     </row>
     <row r="16" ht="18.75" spans="1:2">
       <c r="A16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B16" s="1">
         <f>SUM(B14:B15)</f>
@@ -49775,17 +49742,17 @@
     </row>
     <row r="27" ht="18.75" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:1">
@@ -49795,7 +49762,7 @@
     </row>
     <row r="31" spans="1:1">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -49810,47 +49777,47 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/common/iris_home/装修预算.xlsx
+++ b/common/iris_home/装修预算.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283">
   <si>
-    <t xml:space="preserve">馨苑悦湾 73.40
+    <t xml:space="preserve">馨苑悦湾 73.33
 </t>
   </si>
   <si>
@@ -507,7 +507,7 @@
     <t>电动晾衣架</t>
   </si>
   <si>
-    <t>实惠+晾衣架100</t>
+    <t>好太太</t>
   </si>
   <si>
     <t>伸缩晾衣架</t>
@@ -907,28 +907,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -938,13 +919,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="10"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -956,36 +944,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1005,7 +972,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color indexed="63"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1013,13 +1020,6 @@
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="0"/>
     </font>
@@ -1105,19 +1105,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor indexed="46"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,13 +1129,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="46"/>
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,7 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,43 +1195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="53"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,11 +1344,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
       <bottom style="double">
-        <color indexed="52"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1372,7 +1378,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="44"/>
+        <color indexed="49"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1387,30 +1393,6 @@
         <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
         <color indexed="63"/>
       </bottom>
       <diagonal/>
@@ -1441,6 +1423,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="44"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1455,7 +1455,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1464,136 +1464,136 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1793,11 +1793,11 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1855,25 +1855,25 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="9"/>
     <cellStyle name="差_预算" xfId="10"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="12"/>
-    <cellStyle name="输入" xfId="13"/>
-    <cellStyle name="差" xfId="14"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="15"/>
+    <cellStyle name="输入" xfId="12"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="13"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="14"/>
+    <cellStyle name="差" xfId="15"/>
     <cellStyle name="强调文字颜色 3" xfId="16"/>
-    <cellStyle name="警告文本" xfId="17"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="17"/>
     <cellStyle name="标题 4" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="19"/>
+    <cellStyle name="警告文本" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 5" xfId="20"/>
-    <cellStyle name="链接单元格" xfId="21"/>
+    <cellStyle name="强调文字颜色 2" xfId="21"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="22"/>
-    <cellStyle name="强调文字颜色 2" xfId="23"/>
-    <cellStyle name="标题 3" xfId="24"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="25"/>
-    <cellStyle name="输出" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="27"/>
+    <cellStyle name="链接单元格" xfId="23"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24"/>
+    <cellStyle name="标题 3" xfId="25"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26"/>
+    <cellStyle name="输出" xfId="27"/>
     <cellStyle name="计算" xfId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="29"/>
-    <cellStyle name="强调文字颜色 1" xfId="30"/>
+    <cellStyle name="强调文字颜色 1" xfId="29"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="30"/>
     <cellStyle name="适中" xfId="31"/>
     <cellStyle name="好" xfId="32"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="33"/>
@@ -2222,9 +2222,9 @@
   <dimension ref="A1:J4627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+      <selection pane="bottomLeft" activeCell="I101" sqref="I101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3984,7 +3984,9 @@
       <c r="B88" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="14"/>
+      <c r="C88" s="14" t="s">
+        <v>161</v>
+      </c>
       <c r="D88" s="22" t="s">
         <v>14</v>
       </c>
@@ -3992,14 +3994,14 @@
         <v>1</v>
       </c>
       <c r="F88" s="23">
-        <v>1100</v>
-      </c>
-      <c r="G88" s="15">
+        <v>1309</v>
+      </c>
+      <c r="G88" s="24">
         <f>E88*F88</f>
-        <v>1100</v>
+        <v>1309</v>
       </c>
       <c r="H88" s="15" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
@@ -4016,7 +4018,9 @@
       <c r="G89" s="24">
         <v>259</v>
       </c>
-      <c r="H89" s="15"/>
+      <c r="H89" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="90" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A90" s="21">
@@ -4068,7 +4072,7 @@
         <v>21000</v>
       </c>
       <c r="G92" s="24">
-        <f>E92*F92</f>
+        <f t="shared" ref="G92:G96" si="5">E92*F92</f>
         <v>21000</v>
       </c>
       <c r="H92" s="60" t="s">
@@ -4142,13 +4146,15 @@
         <v>1</v>
       </c>
       <c r="F95" s="23">
-        <v>1800</v>
-      </c>
-      <c r="G95" s="15">
+        <v>1980</v>
+      </c>
+      <c r="G95" s="24">
         <f>E95*F95</f>
-        <v>1800</v>
-      </c>
-      <c r="H95" s="15"/>
+        <v>1980</v>
+      </c>
+      <c r="H95" s="31" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="96" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A96" s="21">
@@ -4363,7 +4369,7 @@
         <v>3250</v>
       </c>
       <c r="G105" s="24">
-        <f t="shared" ref="G105:G107" si="5">E105*F105</f>
+        <f t="shared" ref="G105:G107" si="6">E105*F105</f>
         <v>3250</v>
       </c>
       <c r="H105" s="31" t="s">
@@ -4665,7 +4671,7 @@
         <v>7500</v>
       </c>
       <c r="G119" s="24">
-        <f t="shared" ref="G119:G124" si="6">E119*F119</f>
+        <f t="shared" ref="G119:G124" si="7">E119*F119</f>
         <v>7500</v>
       </c>
       <c r="H119" s="15" t="s">
@@ -4960,7 +4966,9 @@
         <f>E131*F131</f>
         <v>1459</v>
       </c>
-      <c r="H131" s="67"/>
+      <c r="H131" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="132" s="4" customFormat="1" ht="23" customHeight="1" spans="1:8">
       <c r="A132" s="34"/>
@@ -5031,7 +5039,7 @@
       <c r="B135" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C135" s="68" t="s">
+      <c r="C135" s="67" t="s">
         <v>233</v>
       </c>
       <c r="D135" s="22" t="s">
@@ -5095,7 +5103,9 @@
         <f>E137*F137</f>
         <v>1459</v>
       </c>
-      <c r="H137" s="15"/>
+      <c r="H137" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="138" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A138" s="21">
@@ -5114,12 +5124,14 @@
         <v>1</v>
       </c>
       <c r="F138" s="23">
-        <v>3000</v>
-      </c>
-      <c r="G138" s="15">
-        <v>2000</v>
-      </c>
-      <c r="H138" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="G138" s="24">
+        <v>1000</v>
+      </c>
+      <c r="H138" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="139" s="3" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A139" s="21">
@@ -5151,7 +5163,7 @@
       <c r="B140" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="C140" s="68"/>
+      <c r="C140" s="67"/>
       <c r="D140" s="22"/>
       <c r="E140" s="13"/>
       <c r="F140" s="23"/>
@@ -5190,7 +5202,7 @@
       <c r="G142" s="15">
         <v>3000</v>
       </c>
-      <c r="H142" s="67"/>
+      <c r="H142" s="68"/>
     </row>
     <row r="143" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A143" s="21">
@@ -5212,7 +5224,7 @@
         <v>700</v>
       </c>
       <c r="G143" s="15">
-        <f t="shared" ref="G143:G145" si="7">E143*F143</f>
+        <f t="shared" ref="G143:G145" si="8">E143*F143</f>
         <v>700</v>
       </c>
       <c r="H143" s="15"/>
@@ -5358,7 +5370,7 @@
         <f>E150*F150</f>
         <v>0</v>
       </c>
-      <c r="H150" s="67"/>
+      <c r="H150" s="68"/>
     </row>
     <row r="151" s="5" customFormat="1" ht="24" customHeight="1" spans="1:8">
       <c r="A151" s="21">
@@ -5441,7 +5453,7 @@
       </c>
       <c r="C156" s="77">
         <f>SUM(G1:G155)</f>
-        <v>734009.2</v>
+        <v>733398.2</v>
       </c>
       <c r="D156" s="74"/>
       <c r="E156" s="74"/>
